--- a/EXAMS_INTERNAL/CAOSCE_RESULT/RAW_CAOSCE_RESULT/CAOSCE_PSs-Procedure Station ONE-grades.xlsx
+++ b/EXAMS_INTERNAL/CAOSCE_RESULT/RAW_CAOSCE_RESULT/CAOSCE_PSs-Procedure Station ONE-grades.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheets>
-    <sheet name="PSs Procedure Station ONE" sheetId="1" r:id="rIdSheet1" state="visible"/>
+    <sheet name="CAOSCE_PSs Procedure Station ON" sheetId="1" r:id="rIdSheet1" state="visible"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L4"/>
   <sheetData>
     <row r="1" spans="1:12" customHeight="0">
       <c r="A1" s="0" t="inlineStr">
@@ -127,17 +127,17 @@
     <row r="2" spans="1:12" customHeight="0">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>BN/A23/005</t>
+          <t>BN/A23/010</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>MUHAMMAD KHADIJA ABDULLAHI</t>
+          <t>UDEM CHINECHEREM CHISOM</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>yanuueyey@gmail.com4</t>
+          <t>yanuueyey@gmail.com9</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -147,22 +147,22 @@
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>24 November 2025  5:13 PM</t>
+          <t>30 November 2025  4:49 PM</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>24 November 2025  5:13 PM</t>
+          <t>30 November 2025  4:49 PM</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>17 secs</t>
+          <t>24 secs</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>6.25</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -177,29 +177,29 @@
       </c>
       <c r="K2" s="0" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.50</t>
         </is>
       </c>
     </row>
     <row r="3" spans="1:12" customHeight="0">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>BN/A23/006</t>
+          <t>BN/A23/011</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>UMORU AHUOIZA JEMIMA</t>
+          <t>IKEJIAKU LILIAN CHIAMAKA</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>yanuueyey@gmail.com5</t>
+          <t>yanuueyey@gmail.com10</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
@@ -209,22 +209,22 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>24 November 2025  5:19 PM</t>
+          <t>30 November 2025  4:56 PM</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>24 November 2025  5:20 PM</t>
+          <t>30 November 2025  4:56 PM</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>19 secs</t>
+          <t>16 secs</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
@@ -234,235 +234,49 @@
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>-</t>
         </is>
       </c>
       <c r="K3" s="0" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.00</t>
         </is>
       </c>
     </row>
     <row r="4" spans="1:12" customHeight="0">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>BN/A23/004</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>EGWUONWU EBUBECHI COMFORT</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>yanuueyey@gmail.com3</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>24 November 2025  5:23 PM</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>24 November 2025  5:23 PM</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>15 secs</t>
+          <t>Overall average</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>6.25</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="K4" s="0" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>2.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:12" customHeight="0">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>BN/A23/003</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>NDIFE LUCY IFEOMA</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>yanuueyey@gmail.com2</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>24 November 2025  5:25 PM</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>24 November 2025  5:25 PM</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>15 secs</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="K5" s="0" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:12" customHeight="0">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>BN/A23/002</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>OMEDE OJOMA VIRTUOUS</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>yanuueyey@gmail.com1</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>Finished</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>24 November 2025  9:23 PM</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>24 November 2025  9:23 PM</t>
-        </is>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
-        <is>
-          <t>25 secs</t>
-        </is>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="J6" s="0" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="K6" s="0" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="L6" s="0" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:12" customHeight="0">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>Overall average</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>1.38</t>
+          <t>1.25</t>
         </is>
       </c>
     </row>
